--- a/documentation/ExcelFiles/blog.xlsx
+++ b/documentation/ExcelFiles/blog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t xml:space="preserve">Team member</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve">added bcrypt and checks for registration and login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created openAPI doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created .yml file for API documentation</t>
   </si>
 </sst>
 </file>
@@ -395,119 +401,119 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -591,7 +597,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P27" activeCellId="0" sqref="P27"/>
+      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1416,7 +1422,33 @@
       <c r="J41" s="16"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15"/>
+      <c r="A42" s="26" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J42" s="16"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
